--- a/material_content_of_food.xlsx
+++ b/material_content_of_food.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xingq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NutritionsOfFood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95861784-895A-44DD-9A86-B55ED10A0BA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1867B35-2558-4DF8-8DC4-2B564AC2E6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="270" windowWidth="26385" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="1200" windowWidth="19020" windowHeight="13365" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="5" r:id="rId1"/>
     <sheet name="蛋肉奶类" sheetId="1" r:id="rId2"/>
     <sheet name="蔬菜类" sheetId="2" r:id="rId3"/>
     <sheet name="水果类" sheetId="3" r:id="rId4"/>
-    <sheet name="其他" sheetId="4" r:id="rId5"/>
+    <sheet name="主食" sheetId="6" r:id="rId5"/>
+    <sheet name="其他" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,19 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
-  <si>
-    <t>食物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋白质含量/100g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘌呤含量/100g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>鸡蛋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>脂肪含量/100g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.1g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,6 +280,118 @@
   </si>
   <si>
     <t>2.8mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利尿作用。富含膳食纤维及钾元素，能润肠通便，减少肠道对胆固醇的吸收。预防高血压、糖尿病、高血脂及痛风有一定作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲藕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.3mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白质含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘌呤含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脂肪含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物/100g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.1mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.9g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干黄豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.5mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;75mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.7g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.3g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,9 +504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,15 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +523,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -720,35 +817,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6249C76A-8142-4955-BFCC-0CE5DE75B8D9}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -765,7 +862,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,170 +877,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>151</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>60</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3">
+        <v>328</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>54</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="E6" s="3">
+        <v>133</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>151</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4">
-        <v>60</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="4">
-        <v>328</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>122</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4">
-        <v>54</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4">
-        <v>133</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4">
-        <v>122</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>123</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -962,9 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BA40DF-E55F-45A9-8657-0E326F3B7E47}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -974,145 +1069,208 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3">
         <v>46</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>10.3</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3">
         <v>128</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>27.6</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="4">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="4">
-        <v>39</v>
-      </c>
-      <c r="F5" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1120,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4973E4CF-85FF-464C-9AD1-255E8227AB80}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1136,112 +1294,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3">
         <v>53</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="E3" s="3">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="4">
-        <v>13.7</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3">
+        <v>93</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAE4ABC-B607-464F-85A6-A94BF690B761}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3">
+        <v>346</v>
+      </c>
+      <c r="F2" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="4">
-        <v>42</v>
-      </c>
-      <c r="F3" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4">
-        <v>42</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10.1</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="4">
-        <v>93</v>
-      </c>
-      <c r="F5" s="4">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1254,17 +1531,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD38958-1442-4435-838F-BD2A5F0B7F4F}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
@@ -1274,66 +1551,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3">
         <v>258</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>64.099999999999994</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
